--- a/webData.xlsx
+++ b/webData.xlsx
@@ -6,13 +6,54 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TataElxsi" r:id="rId3" sheetId="1"/>
+    <sheet name="Tata Elxsi" r:id="rId3" sheetId="1"/>
+    <sheet name="Page Industries" r:id="rId4" sheetId="2"/>
+    <sheet name="Solar Industries" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="177">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sep 2021</t>
+  </si>
+  <si>
+    <t>Dec 2021</t>
+  </si>
+  <si>
+    <t>Mar 2022</t>
+  </si>
+  <si>
+    <t>Jun 2022</t>
+  </si>
+  <si>
+    <t>Sep 2022</t>
+  </si>
+  <si>
+    <t>Dec 2022</t>
+  </si>
+  <si>
+    <t>Mar 2023</t>
+  </si>
+  <si>
+    <t>Jun 2023</t>
+  </si>
+  <si>
+    <t>Sep 2023</t>
+  </si>
+  <si>
+    <t>Dec 2023</t>
+  </si>
+  <si>
+    <t>Mar 2024</t>
+  </si>
+  <si>
+    <t>Jun 2024</t>
+  </si>
   <si>
     <t>Promoters +</t>
   </si>
@@ -183,6 +224,327 @@
   </si>
   <si>
     <t>5,74,515</t>
+  </si>
+  <si>
+    <t>47.91%</t>
+  </si>
+  <si>
+    <t>47.19%</t>
+  </si>
+  <si>
+    <t>46.12%</t>
+  </si>
+  <si>
+    <t>45.11%</t>
+  </si>
+  <si>
+    <t>45.04%</t>
+  </si>
+  <si>
+    <t>23.73%</t>
+  </si>
+  <si>
+    <t>25.07%</t>
+  </si>
+  <si>
+    <t>25.21%</t>
+  </si>
+  <si>
+    <t>25.18%</t>
+  </si>
+  <si>
+    <t>25.29%</t>
+  </si>
+  <si>
+    <t>24.66%</t>
+  </si>
+  <si>
+    <t>22.38%</t>
+  </si>
+  <si>
+    <t>21.99%</t>
+  </si>
+  <si>
+    <t>21.98%</t>
+  </si>
+  <si>
+    <t>21.78%</t>
+  </si>
+  <si>
+    <t>20.86%</t>
+  </si>
+  <si>
+    <t>20.55%</t>
+  </si>
+  <si>
+    <t>18.20%</t>
+  </si>
+  <si>
+    <t>17.33%</t>
+  </si>
+  <si>
+    <t>17.06%</t>
+  </si>
+  <si>
+    <t>18.21%</t>
+  </si>
+  <si>
+    <t>18.87%</t>
+  </si>
+  <si>
+    <t>19.00%</t>
+  </si>
+  <si>
+    <t>21.26%</t>
+  </si>
+  <si>
+    <t>21.41%</t>
+  </si>
+  <si>
+    <t>22.92%</t>
+  </si>
+  <si>
+    <t>23.92%</t>
+  </si>
+  <si>
+    <t>25.85%</t>
+  </si>
+  <si>
+    <t>27.35%</t>
+  </si>
+  <si>
+    <t>Government +</t>
+  </si>
+  <si>
+    <t>0.62%</t>
+  </si>
+  <si>
+    <t>0.61%</t>
+  </si>
+  <si>
+    <t>0.63%</t>
+  </si>
+  <si>
+    <t>0.71%</t>
+  </si>
+  <si>
+    <t>0.76%</t>
+  </si>
+  <si>
+    <t>0.75%</t>
+  </si>
+  <si>
+    <t>9.54%</t>
+  </si>
+  <si>
+    <t>9.79%</t>
+  </si>
+  <si>
+    <t>9.92%</t>
+  </si>
+  <si>
+    <t>9.87%</t>
+  </si>
+  <si>
+    <t>9.10%</t>
+  </si>
+  <si>
+    <t>9.60%</t>
+  </si>
+  <si>
+    <t>9.61%</t>
+  </si>
+  <si>
+    <t>9.88%</t>
+  </si>
+  <si>
+    <t>9.35%</t>
+  </si>
+  <si>
+    <t>8.49%</t>
+  </si>
+  <si>
+    <t>7.43%</t>
+  </si>
+  <si>
+    <t>6.30%</t>
+  </si>
+  <si>
+    <t>70,876</t>
+  </si>
+  <si>
+    <t>72,430</t>
+  </si>
+  <si>
+    <t>75,727</t>
+  </si>
+  <si>
+    <t>80,259</t>
+  </si>
+  <si>
+    <t>80,716</t>
+  </si>
+  <si>
+    <t>86,416</t>
+  </si>
+  <si>
+    <t>90,855</t>
+  </si>
+  <si>
+    <t>1,02,337</t>
+  </si>
+  <si>
+    <t>98,082</t>
+  </si>
+  <si>
+    <t>92,192</t>
+  </si>
+  <si>
+    <t>84,513</t>
+  </si>
+  <si>
+    <t>69,796</t>
+  </si>
+  <si>
+    <t>73.15%</t>
+  </si>
+  <si>
+    <t>5.81%</t>
+  </si>
+  <si>
+    <t>6.37%</t>
+  </si>
+  <si>
+    <t>6.28%</t>
+  </si>
+  <si>
+    <t>6.63%</t>
+  </si>
+  <si>
+    <t>6.64%</t>
+  </si>
+  <si>
+    <t>6.72%</t>
+  </si>
+  <si>
+    <t>5.79%</t>
+  </si>
+  <si>
+    <t>5.89%</t>
+  </si>
+  <si>
+    <t>5.90%</t>
+  </si>
+  <si>
+    <t>6.10%</t>
+  </si>
+  <si>
+    <t>7.56%</t>
+  </si>
+  <si>
+    <t>16.19%</t>
+  </si>
+  <si>
+    <t>15.43%</t>
+  </si>
+  <si>
+    <t>15.16%</t>
+  </si>
+  <si>
+    <t>14.73%</t>
+  </si>
+  <si>
+    <t>14.60%</t>
+  </si>
+  <si>
+    <t>14.45%</t>
+  </si>
+  <si>
+    <t>14.32%</t>
+  </si>
+  <si>
+    <t>15.01%</t>
+  </si>
+  <si>
+    <t>15.24%</t>
+  </si>
+  <si>
+    <t>15.05%</t>
+  </si>
+  <si>
+    <t>14.52%</t>
+  </si>
+  <si>
+    <t>12.74%</t>
+  </si>
+  <si>
+    <t>4.85%</t>
+  </si>
+  <si>
+    <t>5.05%</t>
+  </si>
+  <si>
+    <t>5.41%</t>
+  </si>
+  <si>
+    <t>5.50%</t>
+  </si>
+  <si>
+    <t>5.61%</t>
+  </si>
+  <si>
+    <t>5.67%</t>
+  </si>
+  <si>
+    <t>5.91%</t>
+  </si>
+  <si>
+    <t>6.04%</t>
+  </si>
+  <si>
+    <t>5.88%</t>
+  </si>
+  <si>
+    <t>6.22%</t>
+  </si>
+  <si>
+    <t>6.54%</t>
+  </si>
+  <si>
+    <t>25,070</t>
+  </si>
+  <si>
+    <t>33,496</t>
+  </si>
+  <si>
+    <t>28,759</t>
+  </si>
+  <si>
+    <t>31,872</t>
+  </si>
+  <si>
+    <t>39,404</t>
+  </si>
+  <si>
+    <t>49,247</t>
+  </si>
+  <si>
+    <t>51,943</t>
+  </si>
+  <si>
+    <t>51,199</t>
+  </si>
+  <si>
+    <t>50,103</t>
+  </si>
+  <si>
+    <t>57,926</t>
+  </si>
+  <si>
+    <t>64,377</t>
+  </si>
+  <si>
+    <t>72,853</t>
   </si>
 </sst>
 </file>
@@ -227,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BM1"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -250,184 +612,795 @@
         <v>4</v>
       </c>
       <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
       <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="H1" t="s" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s" s="0">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="R1" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="S1" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="T1" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="U1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="V1" t="s" s="0">
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="W1" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="X1" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="Y1" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="Z1" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="AA1" t="s" s="0">
+      <c r="B3" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="AB1" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="AC1" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="AD1" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="AE1" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="AF1" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="AG1" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="AH1" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="AI1" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="AJ1" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="AK1" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="AL1" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="AM1" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="AN1" t="s" s="0">
+      <c r="B4" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="AO1" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="AP1" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="AQ1" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="AR1" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="AS1" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="AT1" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="AU1" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="AV1" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="AW1" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="AX1" t="s" s="0">
+      <c r="B5" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="J6" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="AY1" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="AZ1" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="BA1" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="BB1" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="BC1" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="BD1" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="BE1" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="BF1" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="BG1" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="BH1" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="BI1" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="BJ1" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="BK1" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="BL1" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="BM1" t="s" s="0">
-        <v>56</v>
+      <c r="K6" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
